--- a/Data sources.xlsx
+++ b/Data sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samul\Documents\GitHub\Daatta-tiimi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15BF468-841A-4A8B-BF6A-967B98FE2A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9104F-18C9-48CF-B6EA-7C51EBFAAB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="660" windowWidth="26040" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Imdb</t>
   </si>
@@ -129,9 +129,6 @@
     <t>movielens</t>
   </si>
   <si>
-    <t>letter boxed</t>
-  </si>
-  <si>
     <t>Simo</t>
   </si>
   <si>
@@ -142,6 +139,36 @@
   </si>
   <si>
     <t>API/Käsin/melkein screippaus</t>
+  </si>
+  <si>
+    <t>letter boxd</t>
+  </si>
+  <si>
+    <t>Muita huomioita</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Filmi data on peräisin TMDb:stä.</t>
+  </si>
+  <si>
+    <t>Eivät myönnä API:a käyttöön data-analyysi projekteihin / vast. Dataa ei saatavilla myöskään käsin kopioitavina taulukoina.</t>
+  </si>
+  <si>
+    <t>Data kopioitavissa taulukkomuodossa käsin.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Laitettu kysely apista. Taulukkona voi kopioida budjetit ja box officet.</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>on saatavilla, mutta aika työläs</t>
+  </si>
+  <si>
+    <t>budjetit 6530 ja box office 40912</t>
   </si>
 </sst>
 </file>
@@ -214,14 +241,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -502,185 +540,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="3"/>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
